--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G2" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I2" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P2" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G3" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I3" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P3" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G4" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I4" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P4" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G5" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I5" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K5" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P5" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q5" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G6" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I6" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K6" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P6" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G7" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I7" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P7" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G8" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I8" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K8" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P8" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q8" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G9" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I9" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K9" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P9" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G10" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I10" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K10" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P10" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q10" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G11" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I11" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K11" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G12" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I12" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K12" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P12" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G13" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I13" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P13" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G14" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I14" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G15" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I15" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K15" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P15" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G16" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I16" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P16" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G17" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I17" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K17" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G18" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I18" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K18" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P18" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G19" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I19" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P19" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G20" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I20" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G21" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I21" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K21" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P21" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G22" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I22" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P22" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G23" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I23" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K23" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G24" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I24" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K24" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P24" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G25" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I25" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P25" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999845286516351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991389381953254</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999952451110603</v>
+        <v>0.9999955598836291</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999992062</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999973398775155</v>
+        <v>0.9999965254174424</v>
       </c>
       <c r="G26" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.444182458493536e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000803763398418822</v>
       </c>
       <c r="I26" t="n">
-        <v>6.072331330244746e-06</v>
+        <v>4.467702705704711e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>6.17555002154431e-14</v>
+        <v>1.175802112053254e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>3.036165668620205e-06</v>
+        <v>2.233851392423344e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0001971186733916371</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003800240069381849</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001125188972</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003962024156716867</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2907641523688</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7666861698563</v>
       </c>
     </row>
   </sheetData>
